--- a/medicine/Mort/Cimetière_d'Abney_Park/Cimetière_d'Abney_Park.xlsx
+++ b/medicine/Mort/Cimetière_d'Abney_Park/Cimetière_d'Abney_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Abney_Park</t>
+          <t>Cimetière_d'Abney_Park</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Abney Park est l'un des « Magnificent Seven » cimetières de Londres, en Angleterre. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Abney_Park</t>
+          <t>Cimetière_d'Abney_Park</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abney Park se trouve à Stoke Newington dans le borough londonien de Hackney et couvre une superficie de 12,5 hectares. C'est un parc historique aménagé à l'origine au début du XVIIIe siècle par Lady Mary Abney et le Dr Isaac Watts et la famille Hartopp voisine. 
-En 1840, il devient un cimetière paysager non confessionnel, ainsi qu'un arboretum semi-public et un institut d'éducation, qui est largement célébré comme un exemple de son époque. Un total de 196 843 enterrements y a eu lieu jusqu'en l'an 2000[1]. C'est une réserve naturelle locale[2],[3]. 
+En 1840, il devient un cimetière paysager non confessionnel, ainsi qu'un arboretum semi-public et un institut d'éducation, qui est largement célébré comme un exemple de son époque. Un total de 196 843 enterrements y a eu lieu jusqu'en l'an 2000. C'est une réserve naturelle locale,. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Abney_Park</t>
+          <t>Cimetière_d'Abney_Park</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>L'entrée de Style Egyptian Revival</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Faisant partie des 7 cimetières nommés « Magnificent Seven », Abney Park est créé au début de la période victorienne, bien qu'établi d'une manière entièrement différente des autres et avec des objectifs un peu plus larges. Il dispose d'une entrée construite par John Jay dans le style néo-égyptien alors de plus en plus populaire, avec des hiéroglyphes signifiant la « Demeure de la partie mortelle de l'homme ». Elle est inspirée de celle du cimetière de Mount Auburn dans les années 1830. 
 Abney Park prétend être la conception complète la plus ancienne d'une entrée permanente du « renouveau égyptien » dans un cimetière dans le monde.  
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Abney_Park</t>
+          <t>Cimetière_d'Abney_Park</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Paysage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Abney Park est le premier arboretum à être combiné avec un cimetière en Europe, offrant ainsi un intérêt éducatif. Il se situe à l'origine dans un paysage de champs et de bois, à une certaine distance de la limite bâtie de Londres. Ses 2 500 arbres et arbustes sont tous étiquetés et disposés alphabétiquement autour du périmètre, de A pour Acer (érables) à Z pour Zanthoxylum (arbres américains).
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Abney_Park</t>
+          <t>Cimetière_d'Abney_Park</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Médias et culture pop</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les scènes de cimetière du clip de la chanson Back to Black de la chanteuse Amy Winehouse ont été filmées au cimetière d'Abney Park.
 Le groupe punk Abney Park tire son nom du cimetière.
